--- a/SG2.0.xlsx
+++ b/SG2.0.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Cumulative" sheetId="1" r:id="rId1"/>
     <sheet name="Cohort" sheetId="2" r:id="rId2"/>
+    <sheet name="Cohort Values" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>CohortPeriod</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>2021-07</t>
+  </si>
+  <si>
+    <t>CohortGroup</t>
   </si>
 </sst>
 </file>
@@ -1458,4 +1462,744 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1066</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>216</v>
+      </c>
+      <c r="E2">
+        <v>170</v>
+      </c>
+      <c r="F2">
+        <v>209</v>
+      </c>
+      <c r="G2">
+        <v>196</v>
+      </c>
+      <c r="H2">
+        <v>190</v>
+      </c>
+      <c r="I2">
+        <v>170</v>
+      </c>
+      <c r="J2">
+        <v>154</v>
+      </c>
+      <c r="K2">
+        <v>201</v>
+      </c>
+      <c r="L2">
+        <v>247</v>
+      </c>
+      <c r="M2">
+        <v>126</v>
+      </c>
+      <c r="N2">
+        <v>153</v>
+      </c>
+      <c r="O2">
+        <v>155</v>
+      </c>
+      <c r="P2">
+        <v>148</v>
+      </c>
+      <c r="Q2">
+        <v>125</v>
+      </c>
+      <c r="R2">
+        <v>150</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1201</v>
+      </c>
+      <c r="C3">
+        <v>209</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>192</v>
+      </c>
+      <c r="F3">
+        <v>185</v>
+      </c>
+      <c r="G3">
+        <v>152</v>
+      </c>
+      <c r="H3">
+        <v>146</v>
+      </c>
+      <c r="I3">
+        <v>132</v>
+      </c>
+      <c r="J3">
+        <v>146</v>
+      </c>
+      <c r="K3">
+        <v>237</v>
+      </c>
+      <c r="L3">
+        <v>126</v>
+      </c>
+      <c r="M3">
+        <v>101</v>
+      </c>
+      <c r="N3">
+        <v>147</v>
+      </c>
+      <c r="O3">
+        <v>167</v>
+      </c>
+      <c r="P3">
+        <v>94</v>
+      </c>
+      <c r="Q3">
+        <v>129</v>
+      </c>
+      <c r="R3">
+        <v>83</v>
+      </c>
+      <c r="S3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1681</v>
+      </c>
+      <c r="C4">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>222</v>
+      </c>
+      <c r="E4">
+        <v>191</v>
+      </c>
+      <c r="F4">
+        <v>178</v>
+      </c>
+      <c r="G4">
+        <v>162</v>
+      </c>
+      <c r="H4">
+        <v>152</v>
+      </c>
+      <c r="I4">
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <v>297</v>
+      </c>
+      <c r="K4">
+        <v>98</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>132</v>
+      </c>
+      <c r="N4">
+        <v>199</v>
+      </c>
+      <c r="O4">
+        <v>91</v>
+      </c>
+      <c r="P4">
+        <v>166</v>
+      </c>
+      <c r="Q4">
+        <v>85</v>
+      </c>
+      <c r="R4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1283</v>
+      </c>
+      <c r="C5">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="F5">
+        <v>101</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>215</v>
+      </c>
+      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <v>91</v>
+      </c>
+      <c r="M5">
+        <v>122</v>
+      </c>
+      <c r="N5">
+        <v>77</v>
+      </c>
+      <c r="O5">
+        <v>112</v>
+      </c>
+      <c r="P5">
+        <v>58</v>
+      </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1925</v>
+      </c>
+      <c r="C6">
+        <v>244</v>
+      </c>
+      <c r="D6">
+        <v>262</v>
+      </c>
+      <c r="E6">
+        <v>189</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <v>124</v>
+      </c>
+      <c r="H6">
+        <v>301</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>98</v>
+      </c>
+      <c r="L6">
+        <v>175</v>
+      </c>
+      <c r="M6">
+        <v>75</v>
+      </c>
+      <c r="N6">
+        <v>225</v>
+      </c>
+      <c r="O6">
+        <v>76</v>
+      </c>
+      <c r="P6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1086</v>
+      </c>
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+      <c r="F7">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>183</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>102</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>89</v>
+      </c>
+      <c r="N7">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>764</v>
+      </c>
+      <c r="C8">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>114</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>58</v>
+      </c>
+      <c r="M8">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>734</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1042</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>143</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>1112</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>69</v>
+      </c>
+      <c r="J11">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>2065</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>191</v>
+      </c>
+      <c r="G12">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>590</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>461</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>488</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>709</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>349</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>622</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>594</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>